--- a/logistics1_a.xlsx
+++ b/logistics1_a.xlsx
@@ -8,13 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahee\OneDrive\Desktop\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B6942A-C61B-4039-851F-B5EA6112D549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C17F84C-E96D-4A79-BB20-DC7AFE2470C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="1650" windowWidth="7680" windowHeight="10920" xr2:uid="{AC94988C-917C-41BB-81BD-5ADA496E0CA3}"/>
+    <workbookView xWindow="0" yWindow="7230" windowWidth="20490" windowHeight="3690" xr2:uid="{AC94988C-917C-41BB-81BD-5ADA496E0CA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$15:$B$18</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$H$15</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>draft</t>
   </si>
@@ -38,23 +67,16 @@
   <si>
     <t>rebounds</t>
   </si>
-  <si>
-    <t>b0</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>n3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,8 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,15 +426,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D460ECF-4831-4F64-B165-723FBA569149}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -435,8 +463,12 @@
       <c r="D2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -449,8 +481,12 @@
       <c r="D3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -463,8 +499,12 @@
       <c r="D4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -477,8 +517,12 @@
       <c r="D5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -491,8 +535,12 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -505,8 +553,12 @@
       <c r="D7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -519,8 +571,12 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -533,8 +589,12 @@
       <c r="D9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -547,8 +607,12 @@
       <c r="D10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -561,8 +625,12 @@
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -575,8 +643,12 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -589,38 +661,26 @@
       <c r="D13">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>1E-3</v>
-      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="H15">
+        <f>SUM(H2:H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
